--- a/datasets/Raw Data.xlsx
+++ b/datasets/Raw Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B865F600-1EA5-4143-93B9-D5F0CFA09F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6646EC37-4C13-4FF9-B58D-C15BC26BF6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10500" yWindow="1455" windowWidth="9375" windowHeight="10155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -121,8 +121,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,19 +406,19 @@
   <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -435,15 +435,15 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>44562</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>23721.55</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>44567</v>
       </c>
       <c r="B3" t="s">
@@ -455,12 +455,12 @@
       <c r="D3">
         <v>-870.11</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>22851.439999999999</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>44574</v>
       </c>
       <c r="B4" t="s">
@@ -472,12 +472,12 @@
       <c r="D4">
         <v>686.15</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>23537.59</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>44581</v>
       </c>
       <c r="B5" t="s">
@@ -489,12 +489,12 @@
       <c r="D5">
         <v>-584.22</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>22953.37</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>44581</v>
       </c>
       <c r="B6" t="s">
@@ -506,12 +506,12 @@
       <c r="D6">
         <v>89.03</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>23042.399999999998</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>44587</v>
       </c>
       <c r="B7" t="s">
@@ -523,12 +523,12 @@
       <c r="D7">
         <v>213.83</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>23256.23</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>44592</v>
       </c>
       <c r="B8" t="s">
@@ -540,12 +540,12 @@
       <c r="D8">
         <v>-69.12</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>23187.11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>44598</v>
       </c>
       <c r="B9" t="s">
@@ -557,12 +557,12 @@
       <c r="D9">
         <v>-828.11</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>22359</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>44607</v>
       </c>
       <c r="B10" t="s">
@@ -574,12 +574,12 @@
       <c r="D10">
         <v>700.56</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>23059.56</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>44610</v>
       </c>
       <c r="B11" t="s">
@@ -591,12 +591,12 @@
       <c r="D11">
         <v>-920.89</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>22138.670000000002</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>44614</v>
       </c>
       <c r="B12" t="s">
@@ -608,12 +608,12 @@
       <c r="D12">
         <v>554.45000000000005</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>22693.120000000003</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>44623</v>
       </c>
       <c r="B13" t="s">
@@ -625,12 +625,12 @@
       <c r="D13">
         <v>-731.7</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>21961.420000000002</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>44631</v>
       </c>
       <c r="B14" t="s">
@@ -642,12 +642,12 @@
       <c r="D14">
         <v>502.92</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>22464.34</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>44633</v>
       </c>
       <c r="B15" t="s">
@@ -659,12 +659,12 @@
       <c r="D15">
         <v>-600.65</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>21863.69</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>44643</v>
       </c>
       <c r="B16" t="s">
@@ -676,12 +676,12 @@
       <c r="D16">
         <v>992.95</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>22856.639999999999</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>44653</v>
       </c>
       <c r="B17" t="s">
@@ -693,12 +693,12 @@
       <c r="D17">
         <v>943.54</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>23800.18</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>44657</v>
       </c>
       <c r="B18" t="s">
@@ -710,12 +710,12 @@
       <c r="D18">
         <v>34.76</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>23834.94</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>44665</v>
       </c>
       <c r="B19" t="s">
@@ -727,12 +727,12 @@
       <c r="D19">
         <v>-142.44</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>23692.5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>44672</v>
       </c>
       <c r="B20" t="s">
@@ -744,12 +744,12 @@
       <c r="D20">
         <v>-832.35</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>22860.15</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>44678</v>
       </c>
       <c r="B21" t="s">
@@ -761,12 +761,12 @@
       <c r="D21">
         <v>-349.42</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>22510.730000000003</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>44680</v>
       </c>
       <c r="B22" t="s">
@@ -778,12 +778,12 @@
       <c r="D22">
         <v>-310.11</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>22200.620000000003</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>44686</v>
       </c>
       <c r="B23" t="s">
@@ -795,12 +795,12 @@
       <c r="D23">
         <v>259.18</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>22459.800000000003</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>44690</v>
       </c>
       <c r="B24" t="s">
@@ -812,12 +812,12 @@
       <c r="D24">
         <v>-426.99</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>22032.81</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>44696</v>
       </c>
       <c r="B25" t="s">
@@ -829,12 +829,12 @@
       <c r="D25">
         <v>-816.93</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>21215.88</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>44700</v>
       </c>
       <c r="B26" t="s">
@@ -846,12 +846,12 @@
       <c r="D26">
         <v>-789.46</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>20426.420000000002</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>44710</v>
       </c>
       <c r="B27" t="s">
@@ -863,12 +863,12 @@
       <c r="D27">
         <v>-699.28</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>19727.140000000003</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>44711</v>
       </c>
       <c r="B28" t="s">
@@ -880,12 +880,12 @@
       <c r="D28">
         <v>529.44000000000005</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>20256.580000000002</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>44715</v>
       </c>
       <c r="B29" t="s">
@@ -897,12 +897,12 @@
       <c r="D29">
         <v>-520.5</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>19736.080000000002</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>44724</v>
       </c>
       <c r="B30" t="s">
@@ -914,12 +914,12 @@
       <c r="D30">
         <v>510.15</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>20246.230000000003</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>44730</v>
       </c>
       <c r="B31" t="s">
@@ -931,12 +931,12 @@
       <c r="D31">
         <v>83.47</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>20329.700000000004</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>44739</v>
       </c>
       <c r="B32" t="s">
@@ -948,12 +948,12 @@
       <c r="D32">
         <v>-197.48</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>20132.220000000005</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>44749</v>
       </c>
       <c r="B33" t="s">
@@ -965,12 +965,12 @@
       <c r="D33">
         <v>714.31</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>20846.530000000006</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>44758</v>
       </c>
       <c r="B34" t="s">
@@ -982,12 +982,12 @@
       <c r="D34">
         <v>873.08</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>21719.610000000008</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>44760</v>
       </c>
       <c r="B35" t="s">
@@ -999,12 +999,12 @@
       <c r="D35">
         <v>-148.91</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <v>21570.700000000008</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>44768</v>
       </c>
       <c r="B36" t="s">
@@ -1016,12 +1016,12 @@
       <c r="D36">
         <v>-158.9</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="1">
         <v>21411.800000000007</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>44775</v>
       </c>
       <c r="B37" t="s">
@@ -1033,12 +1033,12 @@
       <c r="D37">
         <v>-623.35</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="1">
         <v>20788.450000000008</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>44782</v>
       </c>
       <c r="B38" t="s">
@@ -1050,12 +1050,12 @@
       <c r="D38">
         <v>-830.16</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="1">
         <v>19958.290000000008</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>44789</v>
       </c>
       <c r="B39" t="s">
@@ -1067,12 +1067,12 @@
       <c r="D39">
         <v>-835.61</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="1">
         <v>19122.680000000008</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+      <c r="A40" s="2">
         <v>44794</v>
       </c>
       <c r="B40" t="s">
@@ -1084,12 +1084,12 @@
       <c r="D40">
         <v>637.19000000000005</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="1">
         <v>19759.870000000006</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>44799</v>
       </c>
       <c r="B41" t="s">
@@ -1101,12 +1101,12 @@
       <c r="D41">
         <v>-414.38</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="1">
         <v>19345.490000000005</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>44805</v>
       </c>
       <c r="B42" t="s">
@@ -1118,12 +1118,12 @@
       <c r="D42">
         <v>167</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="1">
         <v>19512.490000000005</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>44807</v>
       </c>
       <c r="B43" t="s">
@@ -1135,12 +1135,12 @@
       <c r="D43">
         <v>-537.01</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="1">
         <v>18975.480000000007</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>44812</v>
       </c>
       <c r="B44" t="s">
@@ -1152,12 +1152,12 @@
       <c r="D44">
         <v>-485.49</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="1">
         <v>18489.990000000005</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+      <c r="A45" s="2">
         <v>44817</v>
       </c>
       <c r="B45" t="s">
@@ -1169,12 +1169,12 @@
       <c r="D45">
         <v>-748.04</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="1">
         <v>17741.950000000004</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+      <c r="A46" s="2">
         <v>44820</v>
       </c>
       <c r="B46" t="s">
@@ -1186,12 +1186,12 @@
       <c r="D46">
         <v>-301.5</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="1">
         <v>17440.450000000004</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+      <c r="A47" s="2">
         <v>44826</v>
       </c>
       <c r="B47" t="s">
@@ -1203,12 +1203,12 @@
       <c r="D47">
         <v>317.10000000000002</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="1">
         <v>17757.550000000003</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+      <c r="A48" s="2">
         <v>44826</v>
       </c>
       <c r="B48" t="s">
@@ -1220,12 +1220,12 @@
       <c r="D48">
         <v>-4.22</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="1">
         <v>17753.330000000002</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+      <c r="A49" s="2">
         <v>44829</v>
       </c>
       <c r="B49" t="s">
@@ -1237,12 +1237,12 @@
       <c r="D49">
         <v>-470.13</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="1">
         <v>17283.2</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+      <c r="A50" s="2">
         <v>44838</v>
       </c>
       <c r="B50" t="s">
@@ -1254,12 +1254,12 @@
       <c r="D50">
         <v>395.96</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="1">
         <v>17679.16</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+      <c r="A51" s="2">
         <v>44847</v>
       </c>
       <c r="B51" t="s">
@@ -1271,12 +1271,12 @@
       <c r="D51">
         <v>-653.4</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="1">
         <v>17025.759999999998</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+      <c r="A52" s="2">
         <v>44849</v>
       </c>
       <c r="B52" t="s">
@@ -1288,12 +1288,12 @@
       <c r="D52">
         <v>-629.29999999999995</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="1">
         <v>16396.46</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+      <c r="A53" s="2">
         <v>44859</v>
       </c>
       <c r="B53" t="s">
@@ -1305,12 +1305,12 @@
       <c r="D53">
         <v>222.22</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="1">
         <v>16618.68</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
+      <c r="A54" s="2">
         <v>44859</v>
       </c>
       <c r="B54" t="s">
@@ -1322,12 +1322,12 @@
       <c r="D54">
         <v>335.1</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="1">
         <v>16953.78</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+      <c r="A55" s="2">
         <v>44861</v>
       </c>
       <c r="B55" t="s">
@@ -1339,12 +1339,12 @@
       <c r="D55">
         <v>73.72</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="1">
         <v>17027.5</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
+      <c r="A56" s="2">
         <v>44869</v>
       </c>
       <c r="B56" t="s">
@@ -1356,12 +1356,12 @@
       <c r="D56">
         <v>211.33</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="1">
         <v>17238.830000000002</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
+      <c r="A57" s="2">
         <v>44874</v>
       </c>
       <c r="B57" t="s">
@@ -1373,12 +1373,12 @@
       <c r="D57">
         <v>253.51</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="1">
         <v>17492.34</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
+      <c r="A58" s="2">
         <v>44876</v>
       </c>
       <c r="B58" t="s">
@@ -1390,12 +1390,12 @@
       <c r="D58">
         <v>494.51</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="1">
         <v>17986.849999999999</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
+      <c r="A59" s="2">
         <v>44883</v>
       </c>
       <c r="B59" t="s">
@@ -1407,12 +1407,12 @@
       <c r="D59">
         <v>854.66</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="1">
         <v>18841.509999999998</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+      <c r="A60" s="2">
         <v>44888</v>
       </c>
       <c r="B60" t="s">
@@ -1424,12 +1424,12 @@
       <c r="D60">
         <v>338.33</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="1">
         <v>19179.84</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
+      <c r="A61" s="2">
         <v>44892</v>
       </c>
       <c r="B61" t="s">
@@ -1441,12 +1441,12 @@
       <c r="D61">
         <v>-250.7</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="1">
         <v>18929.14</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
+      <c r="A62" s="2">
         <v>44898</v>
       </c>
       <c r="B62" t="s">
@@ -1458,12 +1458,12 @@
       <c r="D62">
         <v>-610.78</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="1">
         <v>18318.36</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
+      <c r="A63" s="2">
         <v>44899</v>
       </c>
       <c r="B63" t="s">
@@ -1475,12 +1475,12 @@
       <c r="D63">
         <v>136.97</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="1">
         <v>18455.330000000002</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
+      <c r="A64" s="2">
         <v>44926</v>
       </c>
       <c r="B64" t="s">
@@ -1492,7 +1492,7 @@
       <c r="D64">
         <v>-70.87</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="1">
         <v>18384.460000000003</v>
       </c>
     </row>
